--- a/projects/LC3/LC3-2/LC3/LC3_2_isntr_test.xlsx
+++ b/projects/LC3/LC3-2/LC3/LC3_2_isntr_test.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uzvlyo\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D60D82B-63CA-4CFB-8524-CBFC07619F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="84">
   <si>
     <t>PC</t>
   </si>
@@ -244,21 +253,54 @@
   </si>
   <si>
     <t>R2 =&gt;</t>
+  </si>
+  <si>
+    <t>complete_data</t>
+  </si>
+  <si>
+    <t>1'b0</t>
+  </si>
+  <si>
+    <t>1'b1</t>
+  </si>
+  <si>
+    <t>complete_instr</t>
+  </si>
+  <si>
+    <t>enable_updatePC</t>
+  </si>
+  <si>
+    <t>enable_fetch</t>
+  </si>
+  <si>
+    <t>enable_decode</t>
+  </si>
+  <si>
+    <t>enable_execute</t>
+  </si>
+  <si>
+    <t>enable_writeback</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -268,36 +310,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -487,23 +539,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:AK16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="22" max="22" width="13.25"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +670,7 @@
       </c>
       <c r="AJ2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -717,7 +776,7 @@
       </c>
       <c r="AJ3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -767,7 +826,7 @@
         <v>30</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>31</v>
@@ -819,14 +878,14 @@
       </c>
       <c r="AJ4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:37" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -850,56 +909,56 @@
       <c r="N5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="1" t="s">
+      <c r="AC5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AD5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1" t="s">
+      <c r="AG5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AH5" s="1"/>
-      <c r="AI5" s="1" t="s">
+      <c r="AI5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -933,7 +992,7 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -1010,7 +1069,785 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
     </row>
+    <row r="9" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" t="s">
+        <v>77</v>
+      </c>
+      <c r="U9" t="s">
+        <v>77</v>
+      </c>
+      <c r="V9" t="s">
+        <v>76</v>
+      </c>
+      <c r="W9" t="s">
+        <v>76</v>
+      </c>
+      <c r="X9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" t="s">
+        <v>77</v>
+      </c>
+      <c r="U10" t="s">
+        <v>77</v>
+      </c>
+      <c r="V10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W10" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" t="s">
+        <v>76</v>
+      </c>
+      <c r="V12" t="s">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s">
+        <v>77</v>
+      </c>
+      <c r="X12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13" t="s">
+        <v>76</v>
+      </c>
+      <c r="U13" t="s">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s">
+        <v>76</v>
+      </c>
+      <c r="W13" t="s">
+        <v>77</v>
+      </c>
+      <c r="X13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" t="s">
+        <v>76</v>
+      </c>
+      <c r="T15" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15" t="s">
+        <v>77</v>
+      </c>
+      <c r="V15" t="s">
+        <v>76</v>
+      </c>
+      <c r="W15" t="s">
+        <v>76</v>
+      </c>
+      <c r="X15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s">
+        <v>77</v>
+      </c>
+      <c r="U16" t="s">
+        <v>77</v>
+      </c>
+      <c r="V16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<WrappedLabelHistory xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
+  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSJkYWQ4MjljNS01M2I0LTRlMzQtYmMwMC1hNDY0Y2MzNmI5NGMiIG9yaWdpbj0idXNlclNlbGVjdGVkIiAvPjxVc2VyTmFtZT5DT1JQQUxTTlxVWlZMWU88L1VzZXJOYW1lPjxEYXRlVGltZT42LzEyLzIwMjQgMzoxNjo1MiBQTTwvRGF0ZVRpbWU+PExhYmVsU3RyaW5nPk5vIE1hcmtpbmc8L0xhYmVsU3RyaW5nPjwvaXRlbT48L2xhYmVsSGlzdG9yeT4=</Value>
+</WrappedLabelHistory>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="dad829c5-53b4-4e34-bc00-a464cc36b94c" origin="userSelected"/>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8320C40-F6FF-40E1-AD35-B0D163B9B3F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B614B190-0D60-4E46-8250-54F4005863D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>